--- a/biology/Médecine/Thécome/Thécome.xlsx
+++ b/biology/Médecine/Thécome/Thécome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9come</t>
+          <t>Thécome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les thécomes ou tumeurs des cellules thèques sont des néoplasmes ovariens bénins composés uniquement de cellules thèques. Histogénétiquement, ils sont classés comme des tumeurs du cordon sexuel et du stroma.
-Elles sont généralement productrices d'œstrogènes et surviennent chez les femmes âgées (âge moyen 59 ans ; 84 % après la ménopause ) mais elles peuvent cependant apparaître avant la ménopause[1].
+Elles sont généralement productrices d'œstrogènes et surviennent chez les femmes âgées (âge moyen 59 ans ; 84 % après la ménopause ) mais elles peuvent cependant apparaître avant la ménopause.
 60 % des patientes présentent des saignements utérins anormaux et 20 % ont un carcinome de l'endomètre.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9come</t>
+          <t>Thécome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Caractéristiques pathologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grossièrement, la tumeur est solide et jaune.
 Grossièrement et au microscope, il se compose du cortex ovarien.
